--- a/biology/Botanique/Hymenophyllum_pyramidatum/Hymenophyllum_pyramidatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_pyramidatum/Hymenophyllum_pyramidatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum pyramidatum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Amérique du Sud andine : Bolivie, Colombie, Pérou.
 Elle est principalement épiphyte des troncs d'arbres de forêts pluviales.
@@ -580,12 +596,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1827, Nicaise Auguste Desvaux décrit une première fois cette espèce dans le genre Hymenophyllum à partir d'un échantillon probablement collecté au Pérou par Joseph Dombey[1].
-En 1938, Edwin Bingham Copeland la transfère dans le genre Sphaerocionium : Sphaerocionium pyramidatum (Desv.) Copel.[2].
-En 1974, Conrad Vernon Morton la place dans la sous-section Plumosa de la section Sphaerocionium du sous-genre Sphaerocionium du genre Hymenophyllum[3].
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement d'origine dans le genre Hymenophyllum et la placent dans le sous-genre Sphaerocionium comme espèce représentative de ce sous-genre Sphaerocionium[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1827, Nicaise Auguste Desvaux décrit une première fois cette espèce dans le genre Hymenophyllum à partir d'un échantillon probablement collecté au Pérou par Joseph Dombey.
+En 1938, Edwin Bingham Copeland la transfère dans le genre Sphaerocionium : Sphaerocionium pyramidatum (Desv.) Copel..
+En 1974, Conrad Vernon Morton la place dans la sous-section Plumosa de la section Sphaerocionium du sous-genre Sphaerocionium du genre Hymenophyllum.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement d'origine dans le genre Hymenophyllum et la placent dans le sous-genre Sphaerocionium comme espèce représentative de ce sous-genre Sphaerocionium.
 </t>
         </is>
       </c>
@@ -614,15 +632,17 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum pyramidatum appartient au sous-genre Sphaerocionium.
 Elle compte donc un seul synonyme lié aux reclassements de la famille des Hymenophyllacées :
 Sphaerocionium pyramidatum (Desv.) Copel.
 Une variété a été décrite par Georg Hans Emmo Wolfgang Hieronymus en 1904 à partir de l'espèce Hymenophyllum lobatoalatum Klotsch :
-Hymenophyllum pyramidatum var. lobatoalata (Klotsch) Hieron.[5]
+Hymenophyllum pyramidatum var. lobatoalata (Klotsch) Hieron.
 Cette variété est en fait un synonyme de Hymenophyllum lobatoalatum Klotsch.
-Carl Christensen fait de Hymenophyllum lobatoalatum Klotsch un synonyme à part entière (synonymie reprise par l'index IPNI) et non une variété[6]
+Carl Christensen fait de Hymenophyllum lobatoalatum Klotsch un synonyme à part entière (synonymie reprise par l'index IPNI) et non une variété
 mais Hymenophyllum lobatoalatum Klotsch est une espèce considérée maintenant comme différente, en particulier par Morton, Stolze et Ebihara et al.
 </t>
         </is>
